--- a/StructureDefinition-RS-AllergyIntolerance.xlsx
+++ b/StructureDefinition-RS-AllergyIntolerance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="324">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -517,7 +517,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-clinical|4.0.1</t>
+    <t>http://terminology.hl7.org/ValueSet/allergyintolerance-clinical</t>
   </si>
   <si>
     <t>ait-1
@@ -542,10 +542,7 @@
     <t>The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>Assertion about certainty associated with a propensity, or potential risk, of a reaction to the identified substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-verification|4.0.1</t>
+    <t>http://terminology.hl7.org/ValueSet/allergyintolerance-verification</t>
   </si>
   <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="verificationStatus", moodCode=EVN].value</t>
@@ -661,13 +658,7 @@
 The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
   </si>
   <si>
     <t>substance/product:@@ -696,7 +687,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Patient)
 </t>
   </si>
   <si>
@@ -932,6 +923,9 @@
   </si>
   <si>
     <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identified as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes defining the type of the substance (including pharmaceutical products).</t>
@@ -1394,7 +1388,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1409,7 +1403,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="106.67578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -2720,9 +2714,7 @@
       <c r="X12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
         <v>160</v>
       </c>
@@ -2831,11 +2823,9 @@
       <c r="X13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Y13" s="2"/>
+      <c r="Z13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -2868,7 +2858,7 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>163</v>
@@ -2879,14 +2869,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2908,13 +2898,13 @@
         <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2943,11 +2933,11 @@
         <v>159</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
       </c>
@@ -2964,7 +2954,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2979,25 +2969,25 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3019,13 +3009,13 @@
         <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3054,11 +3044,11 @@
         <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3075,7 +3065,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3090,25 +3080,25 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3130,13 +3120,13 @@
         <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3165,11 +3155,11 @@
         <v>159</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3186,7 +3176,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3201,25 +3191,25 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3241,13 +3231,13 @@
         <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3273,13 +3263,11 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3297,7 +3285,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3312,25 +3300,25 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3349,13 +3337,13 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3406,7 +3394,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3421,21 +3409,21 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3458,13 +3446,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3515,7 +3503,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3530,10 +3518,10 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -3541,10 +3529,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3567,13 +3555,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3624,7 +3612,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3639,10 +3627,10 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -3650,10 +3638,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3676,13 +3664,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3733,7 +3721,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3748,25 +3736,25 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3785,13 +3773,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3842,7 +3830,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3857,10 +3845,10 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -3868,14 +3856,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3894,16 +3882,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3953,7 +3941,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3968,21 +3956,21 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4005,16 +3993,16 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4064,7 +4052,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4079,7 +4067,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4090,10 +4078,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4116,16 +4104,16 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4175,7 +4163,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4190,7 +4178,7 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4201,10 +4189,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4227,13 +4215,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4284,7 +4272,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4299,7 +4287,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4310,10 +4298,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4336,13 +4324,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4393,7 +4381,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4408,7 +4396,7 @@
         <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -4419,10 +4407,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4451,7 +4439,7 @@
         <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>137</v>
@@ -4504,7 +4492,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4519,7 +4507,7 @@
         <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -4530,14 +4518,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4559,10 +4547,10 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>137</v>
@@ -4617,7 +4605,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4643,10 +4631,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4672,13 +4660,13 @@
         <v>155</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4704,13 +4692,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -4728,7 +4716,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4743,7 +4731,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -4754,14 +4742,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4783,13 +4771,13 @@
         <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4815,13 +4803,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -4839,7 +4827,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -4854,25 +4842,25 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4891,16 +4879,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4950,7 +4938,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4965,7 +4953,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -4976,10 +4964,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5002,13 +4990,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5059,7 +5047,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5074,21 +5062,21 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5114,13 +5102,13 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5149,10 +5137,10 @@
         <v>159</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5170,7 +5158,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5185,7 +5173,7 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5196,10 +5184,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5225,13 +5213,13 @@
         <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5257,13 +5245,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5281,7 +5269,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5296,7 +5284,7 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5307,10 +5295,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5333,16 +5321,16 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5392,7 +5380,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5407,7 +5395,7 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
